--- a/Hart Trophy Predictor/Raw Data/Goalie Data/goalies_22-23.xlsx
+++ b/Hart Trophy Predictor/Raw Data/Goalie Data/goalies_22-23.xlsx
@@ -573,12 +573,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CX52"/>
+  <dimension ref="A1:R1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="AH12" activeCellId="0" sqref="AH12"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -601,272 +601,224 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
+      <c r="E2" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0.938</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>1366</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1457</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>2882</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>0.938</v>
+        <v>0.931</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1366</v>
+        <v>1092</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>1457</v>
+        <v>1173</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>2882</v>
+        <v>2311</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>0.931</v>
+        <v>0.91</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1092</v>
+        <v>586</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>1173</v>
+        <v>644</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2311</v>
+        <v>1561</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0" t="n">
         <v>0</v>
@@ -874,46 +826,46 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>27</v>
-      </c>
       <c r="F5" s="0" t="n">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>586</v>
+        <v>877</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>644</v>
+        <v>953</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>1561</v>
+        <v>2013</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>0</v>
@@ -925,116 +877,116 @@
         <v>0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>0.92</v>
+        <v>0.924</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>877</v>
+        <v>1699</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>953</v>
+        <v>1838</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>2013</v>
+        <v>3587</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2.33</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.924</v>
+        <v>0.919</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1699</v>
+        <v>1088</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>1838</v>
+        <v>1184</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>3587</v>
+        <v>2476</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" s="0" t="n">
         <v>0</v>
@@ -1042,223 +994,223 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.919</v>
+        <v>0.92</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1088</v>
+        <v>1633</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>1184</v>
+        <v>1776</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>2476</v>
+        <v>3645</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>62</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>37</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>11</v>
-      </c>
       <c r="J9" s="0" t="n">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1633</v>
+        <v>570</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1776</v>
+        <v>627</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>3645</v>
+        <v>1404</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2.44</v>
+        <v>2.45</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.909</v>
+        <v>0.911</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>570</v>
+        <v>1214</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>627</v>
+        <v>1333</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>1404</v>
+        <v>2916</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>26</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.911</v>
+        <v>0.916</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1214</v>
+        <v>667</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>1333</v>
+        <v>728</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>2916</v>
+        <v>1491</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" s="0" t="n">
         <v>2</v>
@@ -1266,46 +1218,46 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.916</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>667</v>
+        <v>1575</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>728</v>
+        <v>1719</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>1491</v>
+        <v>3489</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>0</v>
@@ -1322,46 +1274,46 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>2.48</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.916</v>
+        <v>0.903</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1575</v>
+        <v>767</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>1719</v>
+        <v>849</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>3489</v>
+        <v>1984</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>0</v>
@@ -1373,60 +1325,60 @@
         <v>1</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H14" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>33</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>21</v>
-      </c>
       <c r="I14" s="0" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>767</v>
+        <v>1807</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>849</v>
+        <v>1964</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>1984</v>
+        <v>3778</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="0" t="n">
         <v>0</v>
@@ -1434,55 +1386,55 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>2.49</v>
+        <v>2.51</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.92</v>
+        <v>0.919</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>1807</v>
+        <v>1749</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1964</v>
+        <v>1904</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>3778</v>
+        <v>3700</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="0" t="n">
         <v>0</v>
@@ -1490,46 +1442,46 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2.51</v>
+        <v>2.64</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.919</v>
+        <v>0.903</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>1749</v>
+        <v>855</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>1904</v>
+        <v>947</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>3700</v>
+        <v>2089</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>0</v>
@@ -1541,80 +1493,80 @@
         <v>1</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.903</v>
+        <v>0.915</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>855</v>
+        <v>1716</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>947</v>
+        <v>1875</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>2089</v>
+        <v>3596</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2.65</v>
@@ -1623,81 +1575,81 @@
         <v>0.915</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>1716</v>
+        <v>1036</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>1875</v>
+        <v>1132</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>3596</v>
+        <v>2171</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.915</v>
+        <v>0.901</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>1036</v>
+        <v>456</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>1132</v>
+        <v>506</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>2171</v>
+        <v>1122</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>0</v>
@@ -1714,111 +1666,111 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.901</v>
+        <v>0.919</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>456</v>
+        <v>1928</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>506</v>
+        <v>2099</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>1122</v>
+        <v>3810</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.919</v>
+        <v>0.913</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>1928</v>
+        <v>629</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>2099</v>
+        <v>689</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>3810</v>
+        <v>1335</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
         <v>0</v>
@@ -1826,46 +1778,46 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.913</v>
+        <v>0.915</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>629</v>
+        <v>552</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>689</v>
+        <v>603</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>1335</v>
+        <v>1127</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>0</v>
@@ -1882,55 +1834,55 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2.72</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>0.915</v>
+        <v>0.903</v>
       </c>
       <c r="H23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="J23" s="0" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="M23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>1127</v>
+        <v>1454</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" s="0" t="n">
         <v>0</v>
@@ -1938,55 +1890,55 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>0.903</v>
+        <v>0.913</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>614</v>
+        <v>1403</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>680</v>
+        <v>1536</v>
       </c>
       <c r="M24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>1454</v>
+        <v>2903</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" s="0" t="n">
         <v>0</v>
@@ -1994,102 +1946,102 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2.75</v>
+        <v>2.83</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>0.913</v>
+        <v>0.895</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>1403</v>
+        <v>597</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>1536</v>
+        <v>667</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>2903</v>
+        <v>1484</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.895</v>
+        <v>0.915</v>
       </c>
       <c r="H26" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="J26" s="0" t="n">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>597</v>
+        <v>1103</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>667</v>
+        <v>1206</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>1484</v>
+        <v>2172</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>0</v>
@@ -2101,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>39</v>
@@ -2124,37 +2076,37 @@
         <v>2.85</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.915</v>
+        <v>0.895</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>14</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>1103</v>
+        <v>832</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>1206</v>
+        <v>930</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>2172</v>
+        <v>2066</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="0" t="n">
         <v>0</v>
@@ -2162,167 +2114,167 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>2.85</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.895</v>
+        <v>0.909</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>832</v>
+        <v>1521</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>930</v>
+        <v>1674</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>2066</v>
+        <v>3224</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2.85</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.909</v>
+        <v>0.908</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>1521</v>
+        <v>1241</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>1674</v>
+        <v>1367</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>3224</v>
+        <v>2654</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.908</v>
+        <v>0.91</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>24</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>1241</v>
+        <v>1286</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>1367</v>
+        <v>1414</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>2654</v>
+        <v>2650</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>2</v>
@@ -2330,46 +2282,46 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.91</v>
+        <v>0.892</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>1286</v>
+        <v>1376</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>1414</v>
+        <v>1542</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>2650</v>
+        <v>3411</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>0</v>
@@ -2381,107 +2333,107 @@
         <v>2</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.892</v>
+        <v>0.898</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>1376</v>
+        <v>840</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>1542</v>
+        <v>935</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>3411</v>
+        <v>1947</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.898</v>
+        <v>0.907</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>840</v>
+        <v>1510</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>935</v>
+        <v>1665</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>1947</v>
+        <v>3164</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>0</v>
@@ -2498,46 +2450,46 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>24</v>
-      </c>
       <c r="E34" s="0" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>0.907</v>
+        <v>0.887</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>1510</v>
+        <v>1016</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>1665</v>
+        <v>1145</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>3164</v>
+        <v>2626</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>0</v>
@@ -2554,46 +2506,46 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.908</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>32</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>48</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>0.887</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>129</v>
-      </c>
       <c r="K35" s="0" t="n">
-        <v>1016</v>
+        <v>730</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>1145</v>
+        <v>804</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>2626</v>
+        <v>1475</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>0</v>
@@ -2605,51 +2557,51 @@
         <v>0</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>3.01</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.908</v>
+        <v>0.903</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>74</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>730</v>
+        <v>687</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>804</v>
+        <v>761</v>
       </c>
       <c r="M36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>0</v>
@@ -2661,60 +2613,60 @@
         <v>0</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.903</v>
+        <v>0.899</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>687</v>
+        <v>767</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>761</v>
+        <v>853</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>1473</v>
+        <v>1692</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="0" t="n">
         <v>0</v>
@@ -2722,46 +2674,46 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.899</v>
+        <v>0.908</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>11</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>853</v>
+        <v>823</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>1692</v>
+        <v>1490</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>0</v>
@@ -2773,60 +2725,60 @@
         <v>1</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.908</v>
+        <v>0.902</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>747</v>
+        <v>1330</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>823</v>
+        <v>1475</v>
       </c>
       <c r="M39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>1490</v>
+        <v>2834</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="0" t="n">
         <v>2</v>
@@ -2834,46 +2786,46 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>3.07</v>
+        <v>3.11</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.902</v>
+        <v>0.896</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>1330</v>
+        <v>1436</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>1475</v>
+        <v>1603</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>2834</v>
+        <v>3220</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>0</v>
@@ -2885,275 +2837,275 @@
         <v>0</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>27</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>3.11</v>
+        <v>3.16</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.896</v>
+        <v>0.902</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1436</v>
+        <v>906</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>1603</v>
+        <v>1005</v>
       </c>
       <c r="M41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>1879</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>3220</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.902</v>
+        <v>0.905</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>906</v>
+        <v>1033</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>1005</v>
+        <v>1142</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>1879</v>
+        <v>2066</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.905</v>
+        <v>0.901</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>1033</v>
+        <v>565</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>1142</v>
+        <v>627</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>2066</v>
+        <v>1169</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.901</v>
+        <v>0.893</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>627</v>
+        <v>563</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>1169</v>
+        <v>1126</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.893</v>
+        <v>0.902</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>503</v>
+        <v>737</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>563</v>
+        <v>817</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>1126</v>
+        <v>1472</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>0</v>
@@ -3170,270 +3122,270 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.902</v>
+        <v>0.882</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>737</v>
+        <v>464</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>817</v>
+        <v>526</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>1472</v>
+        <v>1136</v>
       </c>
       <c r="O46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="I47" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>0.882</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>6</v>
-      </c>
       <c r="J47" s="0" t="n">
-        <v>62</v>
+        <v>194</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>464</v>
+        <v>1632</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>526</v>
+        <v>1826</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>1136</v>
+        <v>3516</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.894</v>
+        <v>0.907</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>1632</v>
+        <v>871</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>1826</v>
+        <v>960</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>3516</v>
+        <v>1587</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.907</v>
+        <v>0.891</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>871</v>
+        <v>614</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>960</v>
+        <v>689</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>1587</v>
+        <v>1325</v>
       </c>
       <c r="O49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>0.891</v>
+        <v>0.888</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>614</v>
+        <v>912</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>689</v>
+        <v>1027</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>1325</v>
+        <v>2026</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>0</v>
@@ -3445,121 +3397,66 @@
         <v>1</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>3.41</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>0.888</v>
+        <v>0.9</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>912</v>
+        <v>1503</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>1027</v>
+        <v>1670</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>2026</v>
+        <v>2941</v>
       </c>
       <c r="O51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>24</v>
-      </c>
-      <c r="J52" s="0" t="n">
-        <v>167</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>1503</v>
-      </c>
-      <c r="L52" s="0" t="n">
-        <v>1670</v>
-      </c>
-      <c r="M52" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N52" s="0" t="n">
-        <v>2941</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
